--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d1dddc3301bfbfd/Desktop/Workspace/Maven_Project/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC104819E9DC6F7A5BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A82F4F-5828-4DDC-8FAE-D7EF252BF26D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104819E9DC6F7A5BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C123AD-D241-45A5-810B-CBE57119EEF1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>userName</t>
   </si>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>admin123</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>pro123</t>
   </si>
 </sst>
 </file>
@@ -376,7 +364,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,18 +390,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
